--- a/examples/date.xlsx
+++ b/examples/date.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangfenjin/github/duckdb-rs/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA0427-A48C-4B43-98B8-15FE3609E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE2711-AD25-1747-9FD7-1AB4783470FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
@@ -387,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -428,4 +429,46 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CCB0B1-DEF5-0949-B7A0-7AFDE9D08053}">
+  <dimension ref="A11:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>